--- a/results/cifar100_training/results_rehearsal_0.5_cifar100.xlsx
+++ b/results/cifar100_training/results_rehearsal_0.5_cifar100.xlsx
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,13 +464,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.42269053691771</v>
+        <v>3.439223561666708</v>
       </c>
       <c r="D3">
-        <v>3.353348970413208</v>
+        <v>3.356844425201416</v>
       </c>
       <c r="E3">
-        <v>8.630000000000001</v>
+        <v>7.83</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -479,10 +479,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.01657535076141357</v>
+        <v>0.01647440004348755</v>
       </c>
       <c r="J3">
-        <v>17.26</v>
+        <v>15.66</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -493,13 +493,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.796957878562493</v>
+        <v>2.807533441391666</v>
       </c>
       <c r="D4">
-        <v>3.08910616238912</v>
+        <v>2.893694400787354</v>
       </c>
       <c r="E4">
-        <v>10.07</v>
+        <v>12.14</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.05245455265045166</v>
+        <v>0.04724917259216309</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.482882540400435</v>
+        <v>2.440107267514794</v>
       </c>
       <c r="D5">
-        <v>2.682376861572266</v>
+        <v>2.668076276779175</v>
       </c>
       <c r="E5">
-        <v>13.28</v>
+        <v>15.24</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.01529433856010437</v>
+        <v>0.01436814332008362</v>
       </c>
       <c r="J5">
-        <v>20.14</v>
+        <v>24.28</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -551,13 +551,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.222302263345175</v>
+        <v>2.163790939128504</v>
       </c>
       <c r="D6">
-        <v>2.635772784550985</v>
+        <v>2.429060697555542</v>
       </c>
       <c r="E6">
-        <v>15.2</v>
+        <v>17.15</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.05460598030090332</v>
+        <v>0.05709670124053955</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -580,13 +580,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.013001998265584</v>
+        <v>1.948004453583101</v>
       </c>
       <c r="D7">
-        <v>2.124967177708944</v>
+        <v>2.153384447097778</v>
       </c>
       <c r="E7">
-        <v>20.15</v>
+        <v>20.97</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -595,10 +595,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.01369333724975586</v>
+        <v>0.01308935694694519</v>
       </c>
       <c r="J7">
-        <v>26.56</v>
+        <v>30.48</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -609,13 +609,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.840953586547355</v>
+        <v>1.780811200099709</v>
       </c>
       <c r="D8">
-        <v>2.234389066696167</v>
+        <v>2.229181051254272</v>
       </c>
       <c r="E8">
-        <v>19.71</v>
+        <v>20.65</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.05935618324279785</v>
+        <v>0.05838270473480225</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.695018243014328</v>
+        <v>1.638781276424374</v>
       </c>
       <c r="D9">
-        <v>1.834151983261108</v>
+        <v>2.046778678894043</v>
       </c>
       <c r="E9">
-        <v>22.7</v>
+        <v>22.1</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -653,10 +653,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.01301549963951111</v>
+        <v>0.01198867950439453</v>
       </c>
       <c r="J9">
-        <v>30.4</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -667,13 +667,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.575181626692051</v>
+        <v>1.50887934402027</v>
       </c>
       <c r="D10">
-        <v>2.012334187825521</v>
+        <v>2.109952211380005</v>
       </c>
       <c r="E10">
-        <v>22.84</v>
+        <v>22.02</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -682,7 +682,7 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.0606337080001831</v>
+        <v>0.05885416851043701</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.466519128985521</v>
+        <v>1.394412803438912</v>
       </c>
       <c r="D11">
-        <v>2.034496625264486</v>
+        <v>1.942011952400208</v>
       </c>
       <c r="E11">
-        <v>22.02</v>
+        <v>23.18</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -711,10 +711,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.01068766865730286</v>
+        <v>0.01060931620597839</v>
       </c>
       <c r="J11">
-        <v>40.3</v>
+        <v>41.94</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -725,13 +725,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.357532249233587</v>
+        <v>1.286202119515006</v>
       </c>
       <c r="D12">
-        <v>2.003914793332418</v>
+        <v>2.00937032699585</v>
       </c>
       <c r="E12">
-        <v>22.27</v>
+        <v>23.7</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.06337745647430421</v>
+        <v>0.06401360683441162</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -754,13 +754,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.26991815392564</v>
+        <v>1.183901386450877</v>
       </c>
       <c r="D13">
-        <v>2.090830405553182</v>
+        <v>2.259478569030762</v>
       </c>
       <c r="E13">
-        <v>22.17</v>
+        <v>22.57</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -769,10 +769,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.01115983300209045</v>
+        <v>0.01082595508098602</v>
       </c>
       <c r="J13">
-        <v>39.42</v>
+        <v>41.3</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.179617852699466</v>
+        <v>1.088600673506745</v>
       </c>
       <c r="D14">
-        <v>1.956278085708618</v>
+        <v>2.253122091293335</v>
       </c>
       <c r="E14">
-        <v>24.09</v>
+        <v>22.52</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -798,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.06844234943389893</v>
+        <v>0.06639168853759765</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -812,13 +812,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.425094564755758</v>
+        <v>1.002781461297938</v>
       </c>
       <c r="D15">
-        <v>1.665639917055766</v>
+        <v>2.075305461883545</v>
       </c>
       <c r="E15">
-        <v>26.38</v>
+        <v>23.45</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -827,10 +827,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.009636299276351928</v>
+        <v>0.01003967392444611</v>
       </c>
       <c r="J15">
-        <v>45.4</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -841,13 +841,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.340254012162123</v>
+        <v>0.9071130747288729</v>
       </c>
       <c r="D16">
-        <v>1.67165474096934</v>
+        <v>2.113530874252319</v>
       </c>
       <c r="E16">
-        <v>26.23</v>
+        <v>23.24</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -856,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.06562989158630371</v>
+        <v>0.0660074073791504</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.288521320839238</v>
+        <v>1.095531382391938</v>
       </c>
       <c r="D17">
-        <v>1.666137496630351</v>
+        <v>1.651262521743774</v>
       </c>
       <c r="E17">
-        <v>26.39</v>
+        <v>26.98</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.009695767402648926</v>
+        <v>0.01036173138618469</v>
       </c>
       <c r="J17">
-        <v>45.68</v>
+        <v>44.04</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -899,13 +899,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.241470874809637</v>
+        <v>0.9967814525671764</v>
       </c>
       <c r="D18">
-        <v>1.674538095792135</v>
+        <v>1.683458805084229</v>
       </c>
       <c r="E18">
-        <v>26.18</v>
+        <v>27</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.06697713260650635</v>
+        <v>0.07057600612640381</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -928,13 +928,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.193055071481844</v>
+        <v>0.9448991296565639</v>
       </c>
       <c r="D19">
-        <v>1.718679825464885</v>
+        <v>1.664314150810242</v>
       </c>
       <c r="E19">
-        <v>26.69</v>
+        <v>26.82</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -943,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.01038747916221619</v>
+        <v>0.009543393421173095</v>
       </c>
       <c r="J19">
-        <v>44.04</v>
+        <v>46.36</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -957,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.148679796273146</v>
+        <v>0.8928830771319634</v>
       </c>
       <c r="D20">
-        <v>1.70172643661499</v>
+        <v>1.713473916053772</v>
       </c>
       <c r="E20">
-        <v>26.45</v>
+        <v>26.85</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -972,7 +972,7 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.07220607223510742</v>
+        <v>0.06640662746429443</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.320254945173496</v>
+        <v>0.85168753841282</v>
       </c>
       <c r="D21">
-        <v>1.630958199501038</v>
+        <v>1.759243130683899</v>
       </c>
       <c r="E21">
-        <v>26.66</v>
+        <v>26.53</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.01027213940620422</v>
+        <v>0.009499791717529297</v>
       </c>
       <c r="J21">
-        <v>44.54</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1015,13 +1015,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.305389983867242</v>
+        <v>0.8056792796185587</v>
       </c>
       <c r="D22">
-        <v>1.643012722333272</v>
+        <v>1.714673161506653</v>
       </c>
       <c r="E22">
-        <v>26.62</v>
+        <v>26.39</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.07261222019195557</v>
+        <v>0.06997224559783935</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.286941428494647</v>
+        <v>0.9821794497228302</v>
       </c>
       <c r="D23">
-        <v>1.595194816589355</v>
+        <v>1.632252216339111</v>
       </c>
       <c r="E23">
-        <v>26.82</v>
+        <v>27.53</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1059,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.01033465571403503</v>
+        <v>0.01070640122890472</v>
       </c>
       <c r="J23">
-        <v>44.34</v>
+        <v>45.14</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1073,13 +1073,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.275705731981169</v>
+        <v>0.9631818474921505</v>
       </c>
       <c r="D24">
-        <v>1.616544842720032</v>
+        <v>1.651557087898254</v>
       </c>
       <c r="E24">
-        <v>26.85</v>
+        <v>27.71</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1088,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.07219106922149658</v>
+        <v>0.07415946788787842</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.261852041492617</v>
+        <v>0.9451358888001569</v>
       </c>
       <c r="D25">
-        <v>1.632427136103312</v>
+        <v>1.632460594177246</v>
       </c>
       <c r="E25">
-        <v>26.74</v>
+        <v>27.57</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1117,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.009480487060546876</v>
+        <v>0.01078518290519714</v>
       </c>
       <c r="J25">
-        <v>48.18</v>
+        <v>45.04</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1131,13 +1131,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.24876282079433</v>
+        <v>0.9293858925853156</v>
       </c>
       <c r="D26">
-        <v>1.590871493021647</v>
+        <v>1.618912696838379</v>
       </c>
       <c r="E26">
-        <v>26.87</v>
+        <v>27.65</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.07532368030548096</v>
+        <v>0.07638159503936767</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1160,13 +1160,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.237072408683901</v>
+        <v>0.9172346808214104</v>
       </c>
       <c r="D27">
-        <v>1.618152618408203</v>
+        <v>1.637027978897095</v>
       </c>
       <c r="E27">
-        <v>26.9</v>
+        <v>27.65</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1175,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.008398630261421203</v>
+        <v>0.01022584478855133</v>
       </c>
       <c r="J27">
-        <v>52.76</v>
+        <v>46.9</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1189,13 +1189,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.225389748084836</v>
+        <v>0.9050214881390597</v>
       </c>
       <c r="D28">
-        <v>1.631516973177592</v>
+        <v>1.632251620292664</v>
       </c>
       <c r="E28">
-        <v>26.81</v>
+        <v>27.46</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -1204,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.06597194499969482</v>
+        <v>0.07603700637817383</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1218,13 +1218,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>1.209963752971432</v>
+        <v>0.892353217686172</v>
       </c>
       <c r="D29">
-        <v>1.643756190935771</v>
+        <v>1.623143076896667</v>
       </c>
       <c r="E29">
-        <v>26.94</v>
+        <v>27.37</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1233,10 +1233,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.008360262513160705</v>
+        <v>0.0103655907869339</v>
       </c>
       <c r="J29">
-        <v>52.46</v>
+        <v>46.48</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1247,13 +1247,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>1.202476949226565</v>
+        <v>0.8791404166052826</v>
       </c>
       <c r="D30">
-        <v>1.655020038286845</v>
+        <v>1.642107844352722</v>
       </c>
       <c r="E30">
-        <v>26.95</v>
+        <v>27.49</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.06622940635681153</v>
+        <v>0.07511848068237305</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1276,13 +1276,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>1.187722412551322</v>
+        <v>0.8658188059266689</v>
       </c>
       <c r="D31">
-        <v>1.633288661638896</v>
+        <v>1.64344322681427</v>
       </c>
       <c r="E31">
-        <v>26.98</v>
+        <v>27.45</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1291,10 +1291,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.008268481874465942</v>
+        <v>0.008037104868888855</v>
       </c>
       <c r="J31">
-        <v>52.78</v>
+        <v>53.96</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1305,13 +1305,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>1.231112039186121</v>
+        <v>0.913266183528225</v>
       </c>
       <c r="D32">
-        <v>1.598996082941691</v>
+        <v>1.632353901863098</v>
       </c>
       <c r="E32">
-        <v>27.07</v>
+        <v>27.67</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -1320,7 +1320,7 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.06727318878173828</v>
+        <v>0.06760279140472412</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1334,13 +1334,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>1.227837301851288</v>
+        <v>0.9078021476754045</v>
       </c>
       <c r="D33">
-        <v>1.60854693253835</v>
+        <v>1.629640936851501</v>
       </c>
       <c r="E33">
-        <v>26.91</v>
+        <v>27.64</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1349,10 +1349,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.008388708019256591</v>
+        <v>0.008173393678665162</v>
       </c>
       <c r="J33">
-        <v>52.36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1363,13 +1363,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>1.224388462741201</v>
+        <v>0.9065496573405983</v>
       </c>
       <c r="D34">
-        <v>1.612588365872701</v>
+        <v>1.630868077278137</v>
       </c>
       <c r="E34">
-        <v>26.98</v>
+        <v>27.57</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1378,7 +1378,7 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.06873390769958496</v>
+        <v>0.06831456680297851</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1392,13 +1392,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>1.222342978163463</v>
+        <v>0.9029595983766876</v>
       </c>
       <c r="D35">
-        <v>1.67536989847819</v>
+        <v>1.614844441413879</v>
       </c>
       <c r="E35">
-        <v>26.91</v>
+        <v>27.57</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -1407,10 +1407,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.008204669451713562</v>
+        <v>0.008183850455284119</v>
       </c>
       <c r="J35">
-        <v>53.38</v>
+        <v>53.64</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1421,13 +1421,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>1.218467787998479</v>
+        <v>0.8994478393444972</v>
       </c>
       <c r="D36">
-        <v>1.624186158180237</v>
+        <v>1.618348240852356</v>
       </c>
       <c r="E36">
-        <v>26.91</v>
+        <v>27.53</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1436,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.06819814586639404</v>
+        <v>0.06879048595428466</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1450,13 +1450,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>1.23173389202211</v>
+        <v>0.898153508131483</v>
       </c>
       <c r="D37">
-        <v>1.652174949645996</v>
+        <v>1.617518544197083</v>
       </c>
       <c r="E37">
-        <v>26.98</v>
+        <v>27.5</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1465,10 +1465,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.008289002323150635</v>
+        <v>0.008289952158927917</v>
       </c>
       <c r="J37">
-        <v>52.9</v>
+        <v>53.7</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1479,13 +1479,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>1.228058561076963</v>
+        <v>0.8937829189595923</v>
       </c>
       <c r="D38">
-        <v>1.652729352315267</v>
+        <v>1.622117519378662</v>
       </c>
       <c r="E38">
-        <v>26.94</v>
+        <v>27.52</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -1494,7 +1494,7 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.06866547107696533</v>
+        <v>0.0689391279220581</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>1.22866137725551</v>
+        <v>0.8924568443171745</v>
       </c>
       <c r="D39">
-        <v>1.607153256734212</v>
+        <v>1.640172600746155</v>
       </c>
       <c r="E39">
-        <v>26.93</v>
+        <v>27.5</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1523,10 +1523,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.008218151211738587</v>
+        <v>0.008453113913536071</v>
       </c>
       <c r="J39">
-        <v>53.32</v>
+        <v>53.06</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1537,13 +1537,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>1.225734394255692</v>
+        <v>0.8884892701047712</v>
       </c>
       <c r="D40">
-        <v>1.657049377759298</v>
+        <v>1.623166680335999</v>
       </c>
       <c r="E40">
-        <v>26.95</v>
+        <v>27.39</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -1552,7 +1552,7 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.06609084606170654</v>
+        <v>0.07012805862426758</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1566,13 +1566,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>1.226983833119152</v>
+        <v>0.9010694744312657</v>
       </c>
       <c r="D41">
-        <v>1.634978850682576</v>
+        <v>1.619275808334351</v>
       </c>
       <c r="E41">
-        <v>26.96</v>
+        <v>27.55</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -1581,13 +1581,28 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.008197268867492676</v>
+        <v>0.008396481990814209</v>
       </c>
       <c r="J41">
-        <v>53.24</v>
+        <v>52.78</v>
       </c>
     </row>
     <row r="42" spans="1:10">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.8975502969944371</v>
+      </c>
+      <c r="D42">
+        <v>1.623177051544189</v>
+      </c>
+      <c r="E42">
+        <v>27.56</v>
+      </c>
       <c r="G42">
         <v>2</v>
       </c>
@@ -1595,13 +1610,28 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.06644537029266358</v>
+        <v>0.07048683166503907</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>0.8968620695899018</v>
+      </c>
+      <c r="D43">
+        <v>1.649460434913635</v>
+      </c>
+      <c r="E43">
+        <v>27.48</v>
+      </c>
       <c r="G43">
         <v>1</v>
       </c>
@@ -1609,13 +1639,28 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.008179896426200867</v>
+        <v>0.007908966588974</v>
       </c>
       <c r="J43">
-        <v>53.64</v>
+        <v>55.06</v>
       </c>
     </row>
     <row r="44" spans="1:10">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>0.8971052301668487</v>
+      </c>
+      <c r="D44">
+        <v>1.631574749946594</v>
+      </c>
+      <c r="E44">
+        <v>27.57</v>
+      </c>
       <c r="G44">
         <v>2</v>
       </c>
@@ -1623,13 +1668,28 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.0664047887802124</v>
+        <v>0.06781334400177003</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>0.8946855506010815</v>
+      </c>
+      <c r="D45">
+        <v>1.632596135139465</v>
+      </c>
+      <c r="E45">
+        <v>27.49</v>
+      </c>
       <c r="G45">
         <v>1</v>
       </c>
@@ -1637,10 +1697,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.008159884095191956</v>
+        <v>0.00791043770313263</v>
       </c>
       <c r="J45">
-        <v>53.7</v>
+        <v>55.42</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1651,7 +1711,7 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.06664357986450195</v>
+        <v>0.06792398853302002</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -1665,10 +1725,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.008177576756477355</v>
+        <v>0.007923579406738282</v>
       </c>
       <c r="J47">
-        <v>53.48</v>
+        <v>55.14</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1679,7 +1739,7 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.06683272647857666</v>
+        <v>0.06820892715454102</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -1693,10 +1753,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.008143365669250488</v>
+        <v>0.007940543007850647</v>
       </c>
       <c r="J49">
-        <v>53.74</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -1707,7 +1767,7 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.06699467048645019</v>
+        <v>0.06856762638092041</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -1721,10 +1781,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.008122913837432862</v>
+        <v>0.007959206962585449</v>
       </c>
       <c r="J51">
-        <v>53.8</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -1735,7 +1795,7 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.06723379764556885</v>
+        <v>0.06875823593139649</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -1749,10 +1809,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.008128289723396302</v>
+        <v>0.007969297623634339</v>
       </c>
       <c r="J53">
-        <v>53.62</v>
+        <v>54.92</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -1763,7 +1823,7 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.06709361972808837</v>
+        <v>0.06887793235778808</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -1777,10 +1837,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.008137134838104248</v>
+        <v>0.007974693155288697</v>
       </c>
       <c r="J55">
-        <v>53.88</v>
+        <v>54.74</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -1791,7 +1851,7 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.06704938850402832</v>
+        <v>0.06855178966522217</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -1805,10 +1865,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.008114617323875428</v>
+        <v>0.008006785488128661</v>
       </c>
       <c r="J57">
-        <v>53.9</v>
+        <v>54.98</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -1819,7 +1879,7 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.06730525150299073</v>
+        <v>0.068815354347229</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -1833,10 +1893,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.00812086079120636</v>
+        <v>0.007997820258140564</v>
       </c>
       <c r="J59">
-        <v>53.96</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -1847,7 +1907,7 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.06793457164764405</v>
+        <v>0.06902782821655273</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -1861,10 +1921,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.008125979232788086</v>
+        <v>0.007930932211875916</v>
       </c>
       <c r="J61">
-        <v>54.14</v>
+        <v>55.34</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -1875,7 +1935,7 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.06690390663146972</v>
+        <v>0.06825824222564697</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -1889,10 +1949,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.008125297164916992</v>
+        <v>0.007934243702888489</v>
       </c>
       <c r="J63">
-        <v>53.82</v>
+        <v>55.28</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -1903,7 +1963,7 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.06687624111175537</v>
+        <v>0.06854893779754638</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -1917,10 +1977,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.008120853853225708</v>
+        <v>0.00793889558315277</v>
       </c>
       <c r="J65">
-        <v>53.96</v>
+        <v>55.14</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -1931,7 +1991,7 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.0669549819946289</v>
+        <v>0.06843574295043946</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -1945,10 +2005,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.008123350715637207</v>
+        <v>0.007937473392486571</v>
       </c>
       <c r="J67">
-        <v>53.82</v>
+        <v>55.14</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -1959,7 +2019,7 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.06709507274627685</v>
+        <v>0.06849265899658204</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -1973,10 +2033,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.008120343136787415</v>
+        <v>0.007936857986450196</v>
       </c>
       <c r="J69">
-        <v>53.82</v>
+        <v>55.06</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -1987,7 +2047,7 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.06706862087249756</v>
+        <v>0.06838495044708252</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -2001,10 +2061,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.008136953926086425</v>
+        <v>0.007952561020851135</v>
       </c>
       <c r="J71">
-        <v>53.96</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -2015,7 +2075,7 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.0667531644821167</v>
+        <v>0.06845453662872314</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -2029,10 +2089,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.008134783053398133</v>
+        <v>0.007947567248344421</v>
       </c>
       <c r="J73">
-        <v>53.88</v>
+        <v>55.04</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -2043,7 +2103,7 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.06692735309600831</v>
+        <v>0.06847637329101562</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2057,10 +2117,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.008133012771606446</v>
+        <v>0.007953360104560853</v>
       </c>
       <c r="J75">
-        <v>53.86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -2071,7 +2131,7 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.06707183685302734</v>
+        <v>0.06853951301574707</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -2085,10 +2145,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.008129849886894226</v>
+        <v>0.007958889555931091</v>
       </c>
       <c r="J77">
-        <v>53.9</v>
+        <v>54.78</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -2099,7 +2159,7 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.06693270359039306</v>
+        <v>0.06882459812164307</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -2113,10 +2173,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.008134183311462402</v>
+        <v>0.007936767292022705</v>
       </c>
       <c r="J79">
-        <v>53.92</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="80" spans="7:10">
@@ -2127,9 +2187,121 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.06683574275970459</v>
+        <v>0.06843051490783691</v>
       </c>
       <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="7:10">
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>40</v>
+      </c>
+      <c r="I81">
+        <v>0.007938877558708191</v>
+      </c>
+      <c r="J81">
+        <v>55.12</v>
+      </c>
+    </row>
+    <row r="82" spans="7:10">
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>40</v>
+      </c>
+      <c r="I82">
+        <v>0.06855320281982422</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="7:10">
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>41</v>
+      </c>
+      <c r="I83">
+        <v>0.007939474034309387</v>
+      </c>
+      <c r="J83">
+        <v>54.96</v>
+      </c>
+    </row>
+    <row r="84" spans="7:10">
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>41</v>
+      </c>
+      <c r="I84">
+        <v>0.06846088981628418</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="7:10">
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>42</v>
+      </c>
+      <c r="I85">
+        <v>0.007944801211357117</v>
+      </c>
+      <c r="J85">
+        <v>55.14</v>
+      </c>
+    </row>
+    <row r="86" spans="7:10">
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>42</v>
+      </c>
+      <c r="I86">
+        <v>0.06841367549896241</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="7:10">
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>43</v>
+      </c>
+      <c r="I87">
+        <v>0.00793824417591095</v>
+      </c>
+      <c r="J87">
+        <v>54.98</v>
+      </c>
+    </row>
+    <row r="88" spans="7:10">
+      <c r="G88">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>43</v>
+      </c>
+      <c r="I88">
+        <v>0.06866129055023193</v>
+      </c>
+      <c r="J88">
         <v>0</v>
       </c>
     </row>
@@ -2144,7 +2316,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2203,13 +2375,13 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.689008772373199</v>
+        <v>3.701830246039396</v>
       </c>
       <c r="D3">
-        <v>2.870946764945984</v>
+        <v>2.947141885757446</v>
       </c>
       <c r="E3">
-        <v>28.22</v>
+        <v>27.42</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2218,10 +2390,10 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0.01487970790863037</v>
+        <v>0.01520818471908569</v>
       </c>
       <c r="J3">
-        <v>28.7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2232,13 +2404,13 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.434407177178756</v>
+        <v>2.367921288902238</v>
       </c>
       <c r="D4">
-        <v>2.533860325813293</v>
+        <v>2.609357595443726</v>
       </c>
       <c r="E4">
-        <v>34.02</v>
+        <v>31.72</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -2247,10 +2419,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.01355449361801147</v>
+        <v>0.01454831161499023</v>
       </c>
       <c r="J4">
-        <v>27.74</v>
+        <v>23.84</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2261,13 +2433,13 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>2.182821180509484</v>
+        <v>2.101981040994091</v>
       </c>
       <c r="D5">
-        <v>2.739968121051788</v>
+        <v>2.55620288848877</v>
       </c>
       <c r="E5">
-        <v>29.29</v>
+        <v>32.57</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -2276,10 +2448,10 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>0.01383468379974365</v>
+        <v>0.01440751252174377</v>
       </c>
       <c r="J5">
-        <v>31.84</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2290,13 +2462,13 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>2.006846059923586</v>
+        <v>1.934997923980803</v>
       </c>
       <c r="D6">
-        <v>2.344192087650299</v>
+        <v>2.482321500778198</v>
       </c>
       <c r="E6">
-        <v>37.24</v>
+        <v>34.52</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -2305,10 +2477,10 @@
         <v>2</v>
       </c>
       <c r="I6">
-        <v>0.01172881422042847</v>
+        <v>0.0120843864440918</v>
       </c>
       <c r="J6">
-        <v>36.2</v>
+        <v>32.48</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2319,13 +2491,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.871211535904719</v>
+        <v>1.791080153905428</v>
       </c>
       <c r="D7">
-        <v>2.511822521686554</v>
+        <v>2.346861362457275</v>
       </c>
       <c r="E7">
-        <v>35.03</v>
+        <v>37.4</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -2334,10 +2506,10 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <v>0.01634425802230835</v>
+        <v>0.01474185566902161</v>
       </c>
       <c r="J7">
-        <v>23.56</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2348,13 +2520,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.747854749793592</v>
+        <v>1.678436431659044</v>
       </c>
       <c r="D8">
-        <v>2.215226233005524</v>
+        <v>2.319375991821289</v>
       </c>
       <c r="E8">
-        <v>40.27</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2363,10 +2535,10 @@
         <v>3</v>
       </c>
       <c r="I8">
-        <v>0.0124907693862915</v>
+        <v>0.01175137963294983</v>
       </c>
       <c r="J8">
-        <v>35.02</v>
+        <v>36.24</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2377,13 +2549,13 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.647022256384725</v>
+        <v>1.56330283294768</v>
       </c>
       <c r="D9">
-        <v>2.422549068927765</v>
+        <v>2.281149864196777</v>
       </c>
       <c r="E9">
-        <v>38.22</v>
+        <v>38.79</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2392,10 +2564,10 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <v>0.01363902411460876</v>
+        <v>0.01437258992195129</v>
       </c>
       <c r="J9">
-        <v>31.26</v>
+        <v>29.68</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2406,13 +2578,13 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.554138291789138</v>
+        <v>1.465861986374714</v>
       </c>
       <c r="D10">
-        <v>2.479943692684174</v>
+        <v>2.32089638710022</v>
       </c>
       <c r="E10">
-        <v>35.61</v>
+        <v>40.07</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2421,10 +2593,10 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <v>0.01040548689365387</v>
+        <v>0.01103579750061035</v>
       </c>
       <c r="J10">
-        <v>43.22</v>
+        <v>39.36</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2435,13 +2607,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.477141338198081</v>
+        <v>1.372434848864403</v>
       </c>
       <c r="D11">
-        <v>2.24840372800827</v>
+        <v>2.385569095611572</v>
       </c>
       <c r="E11">
-        <v>41.13</v>
+        <v>38.06</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -2450,10 +2622,10 @@
         <v>5</v>
       </c>
       <c r="I11">
-        <v>0.01448806319236755</v>
+        <v>0.01354159212112427</v>
       </c>
       <c r="J11">
-        <v>29.34</v>
+        <v>32.16</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2464,13 +2636,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.389020936644596</v>
+        <v>1.285211050298792</v>
       </c>
       <c r="D12">
-        <v>2.269828915596008</v>
+        <v>2.340728521347046</v>
       </c>
       <c r="E12">
-        <v>40.81</v>
+        <v>39.78</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2479,10 +2651,10 @@
         <v>5</v>
       </c>
       <c r="I12">
-        <v>0.01106100118160248</v>
+        <v>0.01088565428256989</v>
       </c>
       <c r="J12">
-        <v>40.72</v>
+        <v>42.64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2493,13 +2665,13 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.316539944513984</v>
+        <v>1.204991018631049</v>
       </c>
       <c r="D13">
-        <v>2.350158214569092</v>
+        <v>2.559391498565674</v>
       </c>
       <c r="E13">
-        <v>39.96</v>
+        <v>38.93</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -2508,10 +2680,10 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <v>0.01298141736984253</v>
+        <v>0.01380899324417114</v>
       </c>
       <c r="J13">
-        <v>34.24</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2522,13 +2694,13 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.459974045986715</v>
+        <v>1.124778955645815</v>
       </c>
       <c r="D14">
-        <v>1.937301933765411</v>
+        <v>2.59960150718689</v>
       </c>
       <c r="E14">
-        <v>46.06</v>
+        <v>37.8</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -2537,10 +2709,10 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <v>0.009813796472549438</v>
+        <v>0.01020840811729431</v>
       </c>
       <c r="J14">
-        <v>46.3</v>
+        <v>44.28</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2551,13 +2723,13 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.383588923708252</v>
+        <v>1.256608693910068</v>
       </c>
       <c r="D15">
-        <v>1.93351611495018</v>
+        <v>1.968758463859558</v>
       </c>
       <c r="E15">
-        <v>46.01</v>
+        <v>45.75</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2566,10 +2738,10 @@
         <v>7</v>
       </c>
       <c r="I15">
-        <v>0.01414001159667969</v>
+        <v>0.01331121921539307</v>
       </c>
       <c r="J15">
-        <v>32</v>
+        <v>33.32</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2580,13 +2752,13 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.335235370889954</v>
+        <v>1.157151960762295</v>
       </c>
       <c r="D16">
-        <v>1.978261500597</v>
+        <v>1.988184094429016</v>
       </c>
       <c r="E16">
-        <v>46.54</v>
+        <v>45.32</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -2595,10 +2767,10 @@
         <v>7</v>
       </c>
       <c r="I16">
-        <v>0.01064708571434021</v>
+        <v>0.01039823620319366</v>
       </c>
       <c r="J16">
-        <v>44.44</v>
+        <v>44.26</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2609,13 +2781,13 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.298395307167717</v>
+        <v>1.10818854309398</v>
       </c>
       <c r="D17">
-        <v>1.988049626350403</v>
+        <v>2.004303693771362</v>
       </c>
       <c r="E17">
-        <v>46.09</v>
+        <v>45.32</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2624,10 +2796,10 @@
         <v>8</v>
       </c>
       <c r="I17">
-        <v>0.0147774338722229</v>
+        <v>0.01346077084541321</v>
       </c>
       <c r="J17">
-        <v>28.56</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2638,13 +2810,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.258728132299755</v>
+        <v>1.06736287915495</v>
       </c>
       <c r="D18">
-        <v>1.983087331056595</v>
+        <v>2.032747030258179</v>
       </c>
       <c r="E18">
-        <v>45.82</v>
+        <v>44.73</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -2653,10 +2825,10 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>0.01100930545330048</v>
+        <v>0.01032715194225311</v>
       </c>
       <c r="J18">
-        <v>42.66</v>
+        <v>45.36</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2667,13 +2839,13 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.219786090047463</v>
+        <v>1.021773341139393</v>
       </c>
       <c r="D19">
-        <v>2.010135293006897</v>
+        <v>2.047355890274048</v>
       </c>
       <c r="E19">
-        <v>46.15000000000001</v>
+        <v>44.27</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2682,10 +2854,10 @@
         <v>9</v>
       </c>
       <c r="I19">
-        <v>0.01236898460388184</v>
+        <v>0.01437075877189636</v>
       </c>
       <c r="J19">
-        <v>36.78</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2696,13 +2868,13 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.183055955754674</v>
+        <v>0.9835009116392869</v>
       </c>
       <c r="D20">
-        <v>2.029872477054596</v>
+        <v>2.068966627120972</v>
       </c>
       <c r="E20">
-        <v>45.93</v>
+        <v>43.93</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -2711,10 +2883,10 @@
         <v>9</v>
       </c>
       <c r="I20">
-        <v>0.01024157977104187</v>
+        <v>0.01030147345066071</v>
       </c>
       <c r="J20">
-        <v>45.48</v>
+        <v>44.68</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2725,13 +2897,13 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.305565868382869</v>
+        <v>1.134246369085368</v>
       </c>
       <c r="D21">
-        <v>1.915692448616028</v>
+        <v>1.945352077484131</v>
       </c>
       <c r="E21">
-        <v>47.17</v>
+        <v>46.06</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2740,10 +2912,10 @@
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.01371738710403442</v>
+        <v>0.01408149809837341</v>
       </c>
       <c r="J21">
-        <v>33.94</v>
+        <v>33.66</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2754,13 +2926,13 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.289250531922216</v>
+        <v>1.115655235284884</v>
       </c>
       <c r="D22">
-        <v>1.912846505641937</v>
+        <v>1.951940298080444</v>
       </c>
       <c r="E22">
-        <v>47</v>
+        <v>45.81</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2769,10 +2941,10 @@
         <v>10</v>
       </c>
       <c r="I22">
-        <v>0.009954556560516357</v>
+        <v>0.01027964658737183</v>
       </c>
       <c r="J22">
-        <v>47.68</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2783,13 +2955,13 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.277090405640395</v>
+        <v>1.101832851855713</v>
       </c>
       <c r="D23">
-        <v>1.909157395362854</v>
+        <v>1.958014845848083</v>
       </c>
       <c r="E23">
-        <v>46.98</v>
+        <v>45.78</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2798,10 +2970,10 @@
         <v>11</v>
       </c>
       <c r="I23">
-        <v>0.01332224388122559</v>
+        <v>0.01539745769500732</v>
       </c>
       <c r="J23">
-        <v>34.82</v>
+        <v>33.48</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2812,13 +2984,13 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.267169482034186</v>
+        <v>1.089324730740496</v>
       </c>
       <c r="D24">
-        <v>1.912730395793915</v>
+        <v>1.958733677864075</v>
       </c>
       <c r="E24">
-        <v>47.31</v>
+        <v>45.78</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2827,10 +2999,10 @@
         <v>11</v>
       </c>
       <c r="I24">
-        <v>0.01066616261005402</v>
+        <v>0.01145047273635864</v>
       </c>
       <c r="J24">
-        <v>45.1</v>
+        <v>44.38</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2841,13 +3013,13 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.255778389132541</v>
+        <v>1.074408195427889</v>
       </c>
       <c r="D25">
-        <v>1.915317684412003</v>
+        <v>1.965042352676392</v>
       </c>
       <c r="E25">
-        <v>47.03</v>
+        <v>45.73999999999999</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2856,10 +3028,10 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>0.01142833995819092</v>
+        <v>0.01600126924514771</v>
       </c>
       <c r="J25">
-        <v>39.62</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2870,13 +3042,13 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.246139914445255</v>
+        <v>1.060305692740446</v>
       </c>
       <c r="D26">
-        <v>1.920665770769119</v>
+        <v>1.969013452529907</v>
       </c>
       <c r="E26">
-        <v>46.86</v>
+        <v>45.59999999999999</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2885,10 +3057,10 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>0.008628694868087769</v>
+        <v>0.01123781003952026</v>
       </c>
       <c r="J26">
-        <v>52.5</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2899,13 +3071,13 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.237286970667217</v>
+        <v>1.109172184791791</v>
       </c>
       <c r="D27">
-        <v>1.919971525669098</v>
+        <v>1.94659948348999</v>
       </c>
       <c r="E27">
-        <v>46.94</v>
+        <v>45.94</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2914,10 +3086,10 @@
         <v>13</v>
       </c>
       <c r="I27">
-        <v>0.01178716735839844</v>
+        <v>0.01169387350082397</v>
       </c>
       <c r="J27">
-        <v>38.22</v>
+        <v>40.06</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2928,13 +3100,13 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.224773081100505</v>
+        <v>1.106569512003272</v>
       </c>
       <c r="D28">
-        <v>1.936931639909744</v>
+        <v>1.945362687110901</v>
       </c>
       <c r="E28">
-        <v>46.76</v>
+        <v>45.81</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2943,10 +3115,10 @@
         <v>13</v>
       </c>
       <c r="I28">
-        <v>0.008382307696342468</v>
+        <v>0.008717625641822815</v>
       </c>
       <c r="J28">
-        <v>53.8</v>
+        <v>51.44</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2957,13 +3129,13 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>1.257018758550934</v>
+        <v>1.101125015309576</v>
       </c>
       <c r="D29">
-        <v>1.904900938272476</v>
+        <v>1.951411962509155</v>
       </c>
       <c r="E29">
-        <v>47.07</v>
+        <v>45.88</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -2972,10 +3144,10 @@
         <v>14</v>
       </c>
       <c r="I29">
-        <v>0.01152246179580689</v>
+        <v>0.01191142811775208</v>
       </c>
       <c r="J29">
-        <v>40.36</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2986,13 +3158,13 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>1.255873699227105</v>
+        <v>1.098709779730915</v>
       </c>
       <c r="D30">
-        <v>1.919761329889297</v>
+        <v>1.949015140533447</v>
       </c>
       <c r="E30">
-        <v>47.11</v>
+        <v>45.98</v>
       </c>
       <c r="G30">
         <v>2</v>
@@ -3001,10 +3173,10 @@
         <v>14</v>
       </c>
       <c r="I30">
-        <v>0.008641068005561829</v>
+        <v>0.008841010022163391</v>
       </c>
       <c r="J30">
-        <v>52.72</v>
+        <v>50.74</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3015,13 +3187,13 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>1.251838995062787</v>
+        <v>1.097487581904823</v>
       </c>
       <c r="D31">
-        <v>1.921501368284225</v>
+        <v>1.951354622840881</v>
       </c>
       <c r="E31">
-        <v>47.09</v>
+        <v>45.81999999999999</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3030,10 +3202,10 @@
         <v>15</v>
       </c>
       <c r="I31">
-        <v>0.0115665536403656</v>
+        <v>0.01217208428382873</v>
       </c>
       <c r="J31">
-        <v>39.34</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3044,13 +3216,13 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>1.251087889723156</v>
+        <v>1.107912224425367</v>
       </c>
       <c r="D32">
-        <v>1.928028404712677</v>
+        <v>1.946284413337708</v>
       </c>
       <c r="E32">
-        <v>47.15000000000001</v>
+        <v>45.99</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3059,10 +3231,10 @@
         <v>15</v>
       </c>
       <c r="I32">
-        <v>0.008645484161376954</v>
+        <v>0.008771580147743225</v>
       </c>
       <c r="J32">
-        <v>52.84</v>
+        <v>51.44</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3073,13 +3245,13 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>1.248896344200425</v>
+        <v>1.108046399418419</v>
       </c>
       <c r="D33">
-        <v>1.92036709189415</v>
+        <v>1.94713830947876</v>
       </c>
       <c r="E33">
-        <v>47.05</v>
+        <v>46.04</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3088,10 +3260,10 @@
         <v>16</v>
       </c>
       <c r="I33">
-        <v>0.01194960064888</v>
+        <v>0.01242220859527588</v>
       </c>
       <c r="J33">
-        <v>38.3</v>
+        <v>38.54</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3102,13 +3274,13 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>1.247041143800901</v>
+        <v>1.107407229186515</v>
       </c>
       <c r="D34">
-        <v>1.925882905721664</v>
+        <v>1.947614550590515</v>
       </c>
       <c r="E34">
-        <v>47.1</v>
+        <v>45.94</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -3117,10 +3289,10 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>0.008544739484786987</v>
+        <v>0.008861355304718018</v>
       </c>
       <c r="J34">
-        <v>53.34</v>
+        <v>50.92</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3131,13 +3303,13 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>1.2553494433346</v>
+        <v>1.106673320016917</v>
       </c>
       <c r="D35">
-        <v>1.91349071264267</v>
+        <v>1.946506142616272</v>
       </c>
       <c r="E35">
-        <v>47.07</v>
+        <v>45.79000000000001</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3146,10 +3318,10 @@
         <v>17</v>
       </c>
       <c r="I35">
-        <v>0.01181155509948731</v>
+        <v>0.01266298689842224</v>
       </c>
       <c r="J35">
-        <v>39.74</v>
+        <v>37.76</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3160,13 +3332,13 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>1.252090704505858</v>
+        <v>1.105607037360852</v>
       </c>
       <c r="D36">
-        <v>1.90618970990181</v>
+        <v>1.944240808486938</v>
       </c>
       <c r="E36">
-        <v>47.14</v>
+        <v>45.84999999999999</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -3175,10 +3347,10 @@
         <v>17</v>
       </c>
       <c r="I36">
-        <v>0.008674534010887146</v>
+        <v>0.008861984872817993</v>
       </c>
       <c r="J36">
-        <v>52.56</v>
+        <v>50.78</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3189,13 +3361,13 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>1.253235800110776</v>
+        <v>1.103483635645646</v>
       </c>
       <c r="D37">
-        <v>1.924966037273407</v>
+        <v>1.947414398193359</v>
       </c>
       <c r="E37">
-        <v>47.11</v>
+        <v>45.93000000000001</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3204,10 +3376,10 @@
         <v>18</v>
       </c>
       <c r="I37">
-        <v>0.01195646657943726</v>
+        <v>0.01291459765434265</v>
       </c>
       <c r="J37">
-        <v>39.96</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3218,13 +3390,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>1.251403640793717</v>
+        <v>1.103285833928712</v>
       </c>
       <c r="D38">
-        <v>1.901466369628906</v>
+        <v>1.947631478309631</v>
       </c>
       <c r="E38">
-        <v>47.02</v>
+        <v>45.79000000000001</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -3233,10 +3405,10 @@
         <v>18</v>
       </c>
       <c r="I38">
-        <v>0.00894283208847046</v>
+        <v>0.008940301084518433</v>
       </c>
       <c r="J38">
-        <v>51.9</v>
+        <v>51.36</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3247,13 +3419,13 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>1.251779264082079</v>
+        <v>1.101355725491541</v>
       </c>
       <c r="D39">
-        <v>1.930868774652481</v>
+        <v>1.943806052207947</v>
       </c>
       <c r="E39">
-        <v>47.02</v>
+        <v>45.87</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3262,10 +3434,10 @@
         <v>19</v>
       </c>
       <c r="I39">
-        <v>0.01137091012001038</v>
+        <v>0.01170598473548889</v>
       </c>
       <c r="J39">
-        <v>40.38</v>
+        <v>40.08</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3276,13 +3448,13 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>1.251938201811003</v>
+        <v>1.101108197277114</v>
       </c>
       <c r="D40">
-        <v>1.915756344795227</v>
+        <v>1.94661271572113</v>
       </c>
       <c r="E40">
-        <v>46.95</v>
+        <v>45.86</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3291,10 +3463,10 @@
         <v>19</v>
       </c>
       <c r="I40">
-        <v>0.008364125442504883</v>
+        <v>0.008582710337638855</v>
       </c>
       <c r="J40">
-        <v>53.96</v>
+        <v>52.04</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3305,13 +3477,13 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>1.250591600070829</v>
+        <v>1.101407805843466</v>
       </c>
       <c r="D41">
-        <v>1.922979921102524</v>
+        <v>1.951567053794861</v>
       </c>
       <c r="E41">
-        <v>47.18</v>
+        <v>45.86</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3320,10 +3492,10 @@
         <v>20</v>
       </c>
       <c r="I41">
-        <v>0.01133296573162079</v>
+        <v>0.01171726574897766</v>
       </c>
       <c r="J41">
-        <v>40.44</v>
+        <v>39.98</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3334,13 +3506,13 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>1.250536645560161</v>
+        <v>1.10102992861934</v>
       </c>
       <c r="D42">
-        <v>1.922893881797791</v>
+        <v>1.946453332901001</v>
       </c>
       <c r="E42">
-        <v>47.06</v>
+        <v>45.98999999999999</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -3349,10 +3521,10 @@
         <v>20</v>
       </c>
       <c r="I42">
-        <v>0.008381486010551453</v>
+        <v>0.008600763702392579</v>
       </c>
       <c r="J42">
-        <v>53.56</v>
+        <v>51.64</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3363,13 +3535,13 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>1.24886204107948</v>
+        <v>1.098031007326566</v>
       </c>
       <c r="D43">
-        <v>1.918926864862442</v>
+        <v>1.948030352592468</v>
       </c>
       <c r="E43">
-        <v>47.14</v>
+        <v>45.84999999999999</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -3378,13 +3550,28 @@
         <v>21</v>
       </c>
       <c r="I43">
-        <v>0.01139192776679993</v>
+        <v>0.01181922850608826</v>
       </c>
       <c r="J43">
-        <v>40.22</v>
+        <v>39.88</v>
       </c>
     </row>
     <row r="44" spans="1:10">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>1.098854480057778</v>
+      </c>
+      <c r="D44">
+        <v>1.94780433177948</v>
+      </c>
+      <c r="E44">
+        <v>45.84</v>
+      </c>
       <c r="G44">
         <v>2</v>
       </c>
@@ -3392,10 +3579,10 @@
         <v>21</v>
       </c>
       <c r="I44">
-        <v>0.008372104954719543</v>
+        <v>0.008605875468254089</v>
       </c>
       <c r="J44">
-        <v>53.74</v>
+        <v>51.68</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3406,10 +3593,10 @@
         <v>22</v>
       </c>
       <c r="I45">
-        <v>0.01141745779514313</v>
+        <v>0.01183411602973938</v>
       </c>
       <c r="J45">
-        <v>40.44</v>
+        <v>39.86</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3420,10 +3607,10 @@
         <v>22</v>
       </c>
       <c r="I46">
-        <v>0.008377830743789673</v>
+        <v>0.00859434199333191</v>
       </c>
       <c r="J46">
-        <v>54.18</v>
+        <v>51.7</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3434,10 +3621,10 @@
         <v>23</v>
       </c>
       <c r="I47">
-        <v>0.01147545628547668</v>
+        <v>0.01184373226165772</v>
       </c>
       <c r="J47">
-        <v>40.16</v>
+        <v>39.98</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3448,10 +3635,10 @@
         <v>23</v>
       </c>
       <c r="I48">
-        <v>0.008351997399330138</v>
+        <v>0.008626400685310363</v>
       </c>
       <c r="J48">
-        <v>53.9</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="49" spans="7:10">
@@ -3462,10 +3649,10 @@
         <v>24</v>
       </c>
       <c r="I49">
-        <v>0.01152743120193481</v>
+        <v>0.01185665512084961</v>
       </c>
       <c r="J49">
-        <v>39.9</v>
+        <v>39.58</v>
       </c>
     </row>
     <row r="50" spans="7:10">
@@ -3476,10 +3663,10 @@
         <v>24</v>
       </c>
       <c r="I50">
-        <v>0.008345100879669189</v>
+        <v>0.008660667610168458</v>
       </c>
       <c r="J50">
-        <v>53.82</v>
+        <v>51.62</v>
       </c>
     </row>
     <row r="51" spans="7:10">
@@ -3490,10 +3677,10 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <v>0.01147857336997986</v>
+        <v>0.01172992980480194</v>
       </c>
       <c r="J51">
-        <v>40.28</v>
+        <v>39.96</v>
       </c>
     </row>
     <row r="52" spans="7:10">
@@ -3504,10 +3691,10 @@
         <v>25</v>
       </c>
       <c r="I52">
-        <v>0.008404813241958619</v>
+        <v>0.008573259782791137</v>
       </c>
       <c r="J52">
-        <v>53.6</v>
+        <v>51.92</v>
       </c>
     </row>
     <row r="53" spans="7:10">
@@ -3518,10 +3705,10 @@
         <v>26</v>
       </c>
       <c r="I53">
-        <v>0.0114970142364502</v>
+        <v>0.0116925151348114</v>
       </c>
       <c r="J53">
-        <v>39.98</v>
+        <v>39.82</v>
       </c>
     </row>
     <row r="54" spans="7:10">
@@ -3532,10 +3719,10 @@
         <v>26</v>
       </c>
       <c r="I54">
-        <v>0.008383589196205139</v>
+        <v>0.008595712995529175</v>
       </c>
       <c r="J54">
-        <v>53.54</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="55" spans="7:10">
@@ -3546,10 +3733,10 @@
         <v>27</v>
       </c>
       <c r="I55">
-        <v>0.01137046842575073</v>
+        <v>0.01168949575424194</v>
       </c>
       <c r="J55">
-        <v>40.2</v>
+        <v>39.96</v>
       </c>
     </row>
     <row r="56" spans="7:10">
@@ -3560,10 +3747,10 @@
         <v>27</v>
       </c>
       <c r="I56">
-        <v>0.008365345311164856</v>
+        <v>0.008613782548904419</v>
       </c>
       <c r="J56">
-        <v>53.94</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="57" spans="7:10">
@@ -3574,10 +3761,10 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <v>0.01140936644077301</v>
+        <v>0.01174937787055969</v>
       </c>
       <c r="J57">
-        <v>40.24</v>
+        <v>39.94</v>
       </c>
     </row>
     <row r="58" spans="7:10">
@@ -3588,10 +3775,10 @@
         <v>28</v>
       </c>
       <c r="I58">
-        <v>0.008344495153427124</v>
+        <v>0.008575830173492432</v>
       </c>
       <c r="J58">
-        <v>53.98</v>
+        <v>52.02</v>
       </c>
     </row>
     <row r="59" spans="7:10">
@@ -3602,10 +3789,10 @@
         <v>29</v>
       </c>
       <c r="I59">
-        <v>0.01141334018707275</v>
+        <v>0.01175404629707336</v>
       </c>
       <c r="J59">
-        <v>40.3</v>
+        <v>39.98</v>
       </c>
     </row>
     <row r="60" spans="7:10">
@@ -3616,10 +3803,10 @@
         <v>29</v>
       </c>
       <c r="I60">
-        <v>0.008347853970527648</v>
+        <v>0.00858154513835907</v>
       </c>
       <c r="J60">
-        <v>53.88</v>
+        <v>51.66</v>
       </c>
     </row>
     <row r="61" spans="7:10">
@@ -3630,10 +3817,10 @@
         <v>30</v>
       </c>
       <c r="I61">
-        <v>0.01139815826416016</v>
+        <v>0.01170115485191345</v>
       </c>
       <c r="J61">
-        <v>40.38</v>
+        <v>39.92</v>
       </c>
     </row>
     <row r="62" spans="7:10">
@@ -3644,10 +3831,10 @@
         <v>30</v>
       </c>
       <c r="I62">
-        <v>0.008357957363128662</v>
+        <v>0.008596630859374999</v>
       </c>
       <c r="J62">
-        <v>53.92</v>
+        <v>52.06</v>
       </c>
     </row>
     <row r="63" spans="7:10">
@@ -3658,10 +3845,10 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <v>0.01140526156425476</v>
+        <v>0.01171062088012695</v>
       </c>
       <c r="J63">
-        <v>40.1</v>
+        <v>39.96</v>
       </c>
     </row>
     <row r="64" spans="7:10">
@@ -3672,10 +3859,10 @@
         <v>31</v>
       </c>
       <c r="I64">
-        <v>0.008353697800636292</v>
+        <v>0.008586948704719544</v>
       </c>
       <c r="J64">
-        <v>54</v>
+        <v>52.12</v>
       </c>
     </row>
     <row r="65" spans="7:10">
@@ -3686,10 +3873,10 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <v>0.01139985103607178</v>
+        <v>0.01173046889305115</v>
       </c>
       <c r="J65">
-        <v>40.28</v>
+        <v>39.84</v>
       </c>
     </row>
     <row r="66" spans="7:10">
@@ -3700,10 +3887,10 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <v>0.008369095659255981</v>
+        <v>0.008588568735122681</v>
       </c>
       <c r="J66">
-        <v>53.92</v>
+        <v>52.04</v>
       </c>
     </row>
     <row r="67" spans="7:10">
@@ -3714,10 +3901,10 @@
         <v>33</v>
       </c>
       <c r="I67">
-        <v>0.01137109723091126</v>
+        <v>0.01172861824035644</v>
       </c>
       <c r="J67">
-        <v>40.24</v>
+        <v>39.7</v>
       </c>
     </row>
     <row r="68" spans="7:10">
@@ -3728,10 +3915,10 @@
         <v>33</v>
       </c>
       <c r="I68">
-        <v>0.008366590929031373</v>
+        <v>0.008563035321235656</v>
       </c>
       <c r="J68">
-        <v>53.9</v>
+        <v>51.88</v>
       </c>
     </row>
     <row r="69" spans="7:10">
@@ -3742,10 +3929,10 @@
         <v>34</v>
       </c>
       <c r="I69">
-        <v>0.01139192883968353</v>
+        <v>0.01172366628646851</v>
       </c>
       <c r="J69">
-        <v>40.38</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="70" spans="7:10">
@@ -3756,10 +3943,10 @@
         <v>34</v>
       </c>
       <c r="I70">
-        <v>0.008348725128173829</v>
+        <v>0.008566719436645508</v>
       </c>
       <c r="J70">
-        <v>53.9</v>
+        <v>51.9</v>
       </c>
     </row>
     <row r="71" spans="7:10">
@@ -3770,10 +3957,10 @@
         <v>35</v>
       </c>
       <c r="I71">
-        <v>0.01138302874565125</v>
+        <v>0.01170429739952087</v>
       </c>
       <c r="J71">
-        <v>40.34</v>
+        <v>40.02</v>
       </c>
     </row>
     <row r="72" spans="7:10">
@@ -3784,10 +3971,10 @@
         <v>35</v>
       </c>
       <c r="I72">
-        <v>0.008352128410339355</v>
+        <v>0.008590428233146668</v>
       </c>
       <c r="J72">
-        <v>53.88</v>
+        <v>51.84</v>
       </c>
     </row>
     <row r="73" spans="7:10">
@@ -3798,10 +3985,10 @@
         <v>36</v>
       </c>
       <c r="I73">
-        <v>0.01138785140514374</v>
+        <v>0.01172680535316467</v>
       </c>
       <c r="J73">
-        <v>40.24</v>
+        <v>39.74</v>
       </c>
     </row>
     <row r="74" spans="7:10">
@@ -3812,10 +3999,10 @@
         <v>36</v>
       </c>
       <c r="I74">
-        <v>0.008374817848205566</v>
+        <v>0.008566298985481263</v>
       </c>
       <c r="J74">
-        <v>53.8</v>
+        <v>51.84</v>
       </c>
     </row>
     <row r="75" spans="7:10">
@@ -3826,10 +4013,10 @@
         <v>37</v>
       </c>
       <c r="I75">
-        <v>0.01137250163555145</v>
+        <v>0.01174096870422363</v>
       </c>
       <c r="J75">
-        <v>40.2</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="76" spans="7:10">
@@ -3840,10 +4027,10 @@
         <v>37</v>
       </c>
       <c r="I76">
-        <v>0.008368010926246642</v>
+        <v>0.008561997079849244</v>
       </c>
       <c r="J76">
-        <v>53.84</v>
+        <v>51.94</v>
       </c>
     </row>
     <row r="77" spans="7:10">
@@ -3854,10 +4041,10 @@
         <v>38</v>
       </c>
       <c r="I77">
-        <v>0.01138702688217163</v>
+        <v>0.01172433581352234</v>
       </c>
       <c r="J77">
-        <v>40.12</v>
+        <v>39.76</v>
       </c>
     </row>
     <row r="78" spans="7:10">
@@ -3868,10 +4055,10 @@
         <v>38</v>
       </c>
       <c r="I78">
-        <v>0.008353138828277588</v>
+        <v>0.008576264381408691</v>
       </c>
       <c r="J78">
-        <v>53.78</v>
+        <v>51.96</v>
       </c>
     </row>
     <row r="79" spans="7:10">
@@ -3882,10 +4069,10 @@
         <v>39</v>
       </c>
       <c r="I79">
-        <v>0.01141772422790527</v>
+        <v>0.01173884620666504</v>
       </c>
       <c r="J79">
-        <v>40.28</v>
+        <v>39.84</v>
       </c>
     </row>
     <row r="80" spans="7:10">
@@ -3896,10 +4083,10 @@
         <v>39</v>
       </c>
       <c r="I80">
-        <v>0.008339970803260804</v>
+        <v>0.008578674101829529</v>
       </c>
       <c r="J80">
-        <v>54.08</v>
+        <v>51.88</v>
       </c>
     </row>
     <row r="81" spans="7:10">
@@ -3910,10 +4097,10 @@
         <v>40</v>
       </c>
       <c r="I81">
-        <v>0.01138670659065247</v>
+        <v>0.01172047233581543</v>
       </c>
       <c r="J81">
-        <v>40.14</v>
+        <v>39.94</v>
       </c>
     </row>
     <row r="82" spans="7:10">
@@ -3924,10 +4111,10 @@
         <v>40</v>
       </c>
       <c r="I82">
-        <v>0.008358830046653748</v>
+        <v>0.008580925059318543</v>
       </c>
       <c r="J82">
-        <v>53.98</v>
+        <v>52.04</v>
       </c>
     </row>
     <row r="83" spans="7:10">
@@ -3938,10 +4125,10 @@
         <v>41</v>
       </c>
       <c r="I83">
-        <v>0.01140577578544617</v>
+        <v>0.01171424660682678</v>
       </c>
       <c r="J83">
-        <v>40.3</v>
+        <v>39.94</v>
       </c>
     </row>
     <row r="84" spans="7:10">
@@ -3952,10 +4139,38 @@
         <v>41</v>
       </c>
       <c r="I84">
-        <v>0.008351635098457336</v>
+        <v>0.00858510193824768</v>
       </c>
       <c r="J84">
-        <v>53.98</v>
+        <v>51.76</v>
+      </c>
+    </row>
+    <row r="85" spans="7:10">
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>42</v>
+      </c>
+      <c r="I85">
+        <v>0.01173712267875671</v>
+      </c>
+      <c r="J85">
+        <v>39.88</v>
+      </c>
+    </row>
+    <row r="86" spans="7:10">
+      <c r="G86">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>42</v>
+      </c>
+      <c r="I86">
+        <v>0.008583085322380066</v>
+      </c>
+      <c r="J86">
+        <v>51.8</v>
       </c>
     </row>
   </sheetData>
